--- a/branches/transfer-out-resource_fig-17/all-profiles.xlsx
+++ b/branches/transfer-out-resource_fig-17/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5249" uniqueCount="779">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T07:02:51+00:00</t>
+    <t>2023-02-02T11:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1268,6 +1268,561 @@
     <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
   </si>
   <si>
+    <t>hiv-organization</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/hiv-organization</t>
+  </si>
+  <si>
+    <t>HIVOrganization</t>
+  </si>
+  <si>
+    <t>HIV Organization</t>
+  </si>
+  <si>
+    <t>HIV Organization for case report - this represents a health facility</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Organization</t>
+  </si>
+  <si>
+    <t>A grouping of people or organizations with a common purpose</t>
+  </si>
+  <si>
+    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
+  </si>
+  <si>
+    <t>Organization.id</t>
+  </si>
+  <si>
+    <t>Organization.meta</t>
+  </si>
+  <si>
+    <t>Organization.implicitRules</t>
+  </si>
+  <si>
+    <t>Organization.language</t>
+  </si>
+  <si>
+    <t>Organization.text</t>
+  </si>
+  <si>
+    <t>Organization.contained</t>
+  </si>
+  <si>
+    <t>Organization.extension</t>
+  </si>
+  <si>
+    <t>Organization.modifierExtension</t>
+  </si>
+  <si>
+    <t>Organization.identifier</t>
+  </si>
+  <si>
+    <t>Identifies this organization  across multiple systems</t>
+  </si>
+  <si>
+    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
+  </si>
+  <si>
+    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the type of identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-1
+</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS</t>
+  </si>
+  <si>
+    <t>HTS</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.system</t>
+  </si>
+  <si>
+    <t>Organization.identifier.system</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/identifier/hiv-organization</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.assigner</t>
+  </si>
+  <si>
+    <t>Organization.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Organization.active</t>
+  </si>
+  <si>
+    <t>Whether the organization's record is still in active use</t>
+  </si>
+  <si>
+    <t>Whether the organization's record is still in active use.</t>
+  </si>
+  <si>
+    <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
+This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
+  </si>
+  <si>
+    <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.</t>
+  </si>
+  <si>
+    <t>Organization.type</t>
+  </si>
+  <si>
+    <t>Kind of organization</t>
+  </si>
+  <si>
+    <t>The kind(s) of organization that this is.</t>
+  </si>
+  <si>
+    <t>Organizations can be corporations, wards, sections, clinical teams, government departments, etc. Note that code is generally a classifier of the type of organization; in many applications, codes are used to identity a particular organization (say, ward) as opposed to another of the same type - these are identifiers, not codes
+When considering if multiple types are appropriate, you should evaluate if child organizations would be a more appropriate use of the concept, as different types likely are in different sub-areas of the organization. This is most likely to be used where type values have orthogonal values, such as a religious, academic and medical center.
+We expect that some jurisdictions will profile this optionality to be a single cardinality.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Used to categorize the organization.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/organization-type</t>
+  </si>
+  <si>
+    <t>Organization.name</t>
+  </si>
+  <si>
+    <t>Name used for the organization</t>
+  </si>
+  <si>
+    <t>A name associated with the organization.</t>
+  </si>
+  <si>
+    <t>If the name of an organization changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
+  </si>
+  <si>
+    <t>Need to use the name as the label of the organization.</t>
+  </si>
+  <si>
+    <t>Organization.alias</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the organization is known as, or was known as in the past</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the organization is known as, or was known as in the past.</t>
+  </si>
+  <si>
+    <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the organization.</t>
+  </si>
+  <si>
+    <t>Over time locations and organizations go through many changes and can be known by different names.
+For searching knowing previous names that the organization was known by can be very useful.</t>
+  </si>
+  <si>
+    <t>Organization.telecom</t>
+  </si>
+  <si>
+    <t>A contact detail for the organization</t>
+  </si>
+  <si>
+    <t>A contact detail for the organization.</t>
+  </si>
+  <si>
+    <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
+  </si>
+  <si>
+    <t>Human contact for the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-3
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>Organization.address</t>
+  </si>
+  <si>
+    <t>An address for the organization</t>
+  </si>
+  <si>
+    <t>An address for the organization.</t>
+  </si>
+  <si>
+    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
+  </si>
+  <si>
+    <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-2
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>Organization.address.id</t>
+  </si>
+  <si>
+    <t>Organization.address.extension</t>
+  </si>
+  <si>
+    <t>Organization.address.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>Organization.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>Organization.address.text</t>
+  </si>
+  <si>
+    <t>Text representation of the address</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>Organization.address.line</t>
+  </si>
+  <si>
+    <t>Street name, number, direction &amp; P.O. Box etc.</t>
+  </si>
+  <si>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>Organization.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>Name of city, town etc.</t>
+  </si>
+  <si>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>Organization.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>District name (aka county)</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>Organization.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>Sub-unit of country (abbreviations ok)</t>
+  </si>
+  <si>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>Organization.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>Postal code for area</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>Organization.address.country</t>
+  </si>
+  <si>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>Organization.address.period</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
+&lt;/valuePeriod&gt;</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>Organization.partOf</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
+  </si>
+  <si>
+    <t>Organization.contact</t>
+  </si>
+  <si>
+    <t>Contact for the organization for a certain purpose</t>
+  </si>
+  <si>
+    <t>Contact for the organization for a certain purpose.</t>
+  </si>
+  <si>
+    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
+  </si>
+  <si>
+    <t>Need to keep track of assigned contact points within bigger organization.</t>
+  </si>
+  <si>
+    <t>Organization.contact.id</t>
+  </si>
+  <si>
+    <t>Organization.contact.extension</t>
+  </si>
+  <si>
+    <t>Organization.contact.modifierExtension</t>
+  </si>
+  <si>
+    <t>Organization.contact.purpose</t>
+  </si>
+  <si>
+    <t>The type of contact</t>
+  </si>
+  <si>
+    <t>Indicates a purpose for which the contact can be reached.</t>
+  </si>
+  <si>
+    <t>Need to distinguish between multiple contact persons.</t>
+  </si>
+  <si>
+    <t>The purpose for which you would contact a contact party.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+  </si>
+  <si>
+    <t>Organization.contact.name</t>
+  </si>
+  <si>
+    <t>A name associated with the contact</t>
+  </si>
+  <si>
+    <t>A name associated with the contact.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the person by name.</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom</t>
+  </si>
+  <si>
+    <t>Contact details (telephone, email, etc.)  for a contact</t>
+  </si>
+  <si>
+    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
+  </si>
+  <si>
+    <t>Organization.contact.address</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact.</t>
+  </si>
+  <si>
+    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t>Organization.endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Endpoint)
+</t>
+  </si>
+  <si>
+    <t>Technical endpoints providing access to services operated for the organization</t>
+  </si>
+  <si>
+    <t>Technical endpoints providing access to services operated for the organization.</t>
+  </si>
+  <si>
+    <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+  </si>
+  <si>
     <t>transferout</t>
   </si>
   <si>
@@ -1280,7 +1835,7 @@
     <t>Transfer-Out Request</t>
   </si>
   <si>
-    <t>Service Request for Transfer-Out</t>
+    <t>This profile will be used to capture a Transfer-Out request for a patient</t>
   </si>
   <si>
     <t>ServiceRequest</t>
@@ -1446,6 +2001,9 @@
     <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
   </si>
   <si>
+    <t>proposal</t>
+  </si>
+  <si>
     <t>The kind of service request.</t>
   </si>
   <si>
@@ -1465,9 +2023,6 @@
   </si>
   <si>
     <t>Used for filtering what service request are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Classification of the requested service.</t>
@@ -1579,7 +2134,7 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Location|Device)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/hiv-patient)
 </t>
   </si>
   <si>
@@ -1613,8 +2168,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiming</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>When service should occur</t>
@@ -1627,14 +2182,13 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>ServiceRequest.occurrence[x]:occurrenceDateTime</t>
   </si>
   <si>
     <t>occurrenceDateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
   </si>
   <si>
     <t>ServiceRequest.asNeeded[x]</t>
@@ -2032,7 +2586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:B43"/>
+  <dimension ref="A2:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2366,6 +2920,168 @@
         <v>37</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2373,7 +3089,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK107"/>
+  <dimension ref="A1:AK154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2382,7 +3098,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.89453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="48.45703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.47265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="20.203125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2402,7 +3118,7 @@
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="8.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="39.97265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -9187,7 +9903,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
@@ -9209,10 +9925,10 @@
         <v>78</v>
       </c>
       <c r="M65" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -9283,10 +9999,10 @@
         <v>401</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9388,10 +10104,10 @@
         <v>401</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9491,10 +10207,10 @@
         <v>401</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9596,10 +10312,10 @@
         <v>401</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9701,10 +10417,10 @@
         <v>401</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9806,10 +10522,10 @@
         <v>401</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9911,10 +10627,10 @@
         <v>401</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10016,10 +10732,10 @@
         <v>401</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10123,10 +10839,10 @@
         <v>401</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10134,7 +10850,7 @@
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>76</v>
@@ -10152,15 +10868,15 @@
         <v>138</v>
       </c>
       <c r="M74" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="O74" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10196,19 +10912,19 @@
         <v>77</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>75</v>
@@ -10217,7 +10933,7 @@
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>94</v>
@@ -10228,21 +10944,23 @@
         <v>401</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="D75" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="E75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>77</v>
@@ -10254,18 +10972,18 @@
         <v>83</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>424</v>
+        <v>138</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="P75" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="Q75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10313,7 +11031,7 @@
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>75</v>
@@ -10322,7 +11040,7 @@
         <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>94</v>
@@ -10333,7 +11051,7 @@
         <v>401</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>428</v>
@@ -10347,7 +11065,7 @@
         <v>75</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>77</v>
@@ -10356,20 +11074,18 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>429</v>
+        <v>149</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>77</v>
@@ -10418,19 +11134,19 @@
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>428</v>
+        <v>151</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
@@ -10438,14 +11154,14 @@
         <v>401</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>433</v>
+        <v>125</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" t="s" s="2">
@@ -10461,18 +11177,20 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>434</v>
+        <v>126</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>435</v>
+        <v>127</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
         <v>77</v>
@@ -10509,19 +11227,19 @@
         <v>77</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AE77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>432</v>
+        <v>158</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>75</v>
@@ -10533,7 +11251,7 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78">
@@ -10541,42 +11259,46 @@
         <v>401</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>439</v>
+        <v>102</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>440</v>
+        <v>161</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="Q78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10600,13 +11322,13 @@
         <v>77</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AB78" t="s" s="2">
         <v>77</v>
@@ -10624,13 +11346,13 @@
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>437</v>
+        <v>168</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
@@ -10644,14 +11366,14 @@
         <v>401</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" t="s" s="2">
@@ -10670,19 +11392,19 @@
         <v>83</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>444</v>
+        <v>172</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>445</v>
+        <v>173</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>446</v>
+        <v>174</v>
       </c>
       <c r="P79" t="s" s="2">
-        <v>447</v>
+        <v>175</v>
       </c>
       <c r="Q79" t="s" s="2">
         <v>77</v>
@@ -10707,13 +11429,13 @@
         <v>77</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AB79" t="s" s="2">
         <v>77</v>
@@ -10731,7 +11453,7 @@
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>442</v>
+        <v>179</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>75</v>
@@ -10751,10 +11473,10 @@
         <v>401</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10771,36 +11493,38 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>449</v>
+        <v>182</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>450</v>
+        <v>183</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="P80" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="Q80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="R80" s="2"/>
       <c r="S80" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="U80" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="V80" t="s" s="2">
         <v>77</v>
@@ -10812,13 +11536,13 @@
         <v>77</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>453</v>
+        <v>77</v>
       </c>
       <c r="AB80" t="s" s="2">
         <v>77</v>
@@ -10836,10 +11560,10 @@
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>448</v>
+        <v>188</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>82</v>
@@ -10856,10 +11580,10 @@
         <v>401</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10876,22 +11600,22 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>455</v>
+        <v>191</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>456</v>
+        <v>192</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>457</v>
+        <v>193</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
@@ -10905,7 +11629,7 @@
         <v>77</v>
       </c>
       <c r="U81" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="V81" t="s" s="2">
         <v>77</v>
@@ -10917,13 +11641,13 @@
         <v>77</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>458</v>
+        <v>77</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>459</v>
+        <v>77</v>
       </c>
       <c r="AB81" t="s" s="2">
         <v>77</v>
@@ -10941,10 +11665,10 @@
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>454</v>
+        <v>195</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
@@ -10961,10 +11685,10 @@
         <v>401</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10975,7 +11699,7 @@
         <v>75</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>77</v>
@@ -10987,20 +11711,16 @@
         <v>83</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>461</v>
+        <v>199</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="P82" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11024,13 +11744,13 @@
         <v>77</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>466</v>
+        <v>77</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>467</v>
+        <v>77</v>
       </c>
       <c r="AB82" t="s" s="2">
         <v>77</v>
@@ -11048,13 +11768,13 @@
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>460</v>
+        <v>201</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>77</v>
@@ -11068,10 +11788,10 @@
         <v>401</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11094,22 +11814,22 @@
         <v>83</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>469</v>
+        <v>205</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R83" t="s" s="2">
-        <v>471</v>
-      </c>
+      <c r="R83" s="2"/>
       <c r="S83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11129,13 +11849,13 @@
         <v>77</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>472</v>
+        <v>77</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>473</v>
+        <v>77</v>
       </c>
       <c r="AB83" t="s" s="2">
         <v>77</v>
@@ -11153,7 +11873,7 @@
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>468</v>
+        <v>208</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>75</v>
@@ -11173,10 +11893,10 @@
         <v>401</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11202,22 +11922,22 @@
         <v>210</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="P84" t="s" s="2">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="Q84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="R84" t="s" s="2">
-        <v>479</v>
+        <v>215</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>77</v>
@@ -11262,7 +11982,7 @@
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>75</v>
@@ -11282,21 +12002,21 @@
         <v>401</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>481</v>
+        <v>77</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>77</v>
@@ -11311,15 +12031,17 @@
         <v>171</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="P85" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11343,13 +12065,13 @@
         <v>77</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="AB85" t="s" s="2">
         <v>77</v>
@@ -11367,13 +12089,13 @@
         <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>77</v>
@@ -11387,21 +12109,21 @@
         <v>401</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>488</v>
+        <v>77</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>77</v>
@@ -11413,18 +12135,20 @@
         <v>83</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="P86" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="Q86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11448,13 +12172,13 @@
         <v>77</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>492</v>
+        <v>77</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>493</v>
+        <v>77</v>
       </c>
       <c r="AB86" t="s" s="2">
         <v>77</v>
@@ -11472,16 +12196,16 @@
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>494</v>
+        <v>424</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>94</v>
@@ -11492,10 +12216,10 @@
         <v>401</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11506,7 +12230,7 @@
         <v>75</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>77</v>
@@ -11515,20 +12239,22 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>496</v>
+        <v>148</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="P87" t="s" s="2">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="Q87" t="s" s="2">
         <v>77</v>
@@ -11577,13 +12303,13 @@
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>77</v>
@@ -11597,10 +12323,10 @@
         <v>401</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11608,10 +12334,10 @@
       </c>
       <c r="F88" s="2"/>
       <c r="G88" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>77</v>
@@ -11620,19 +12346,23 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>501</v>
+        <v>264</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="Q88" t="s" s="2">
         <v>77</v>
       </c>
@@ -11680,19 +12410,19 @@
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>77</v>
+        <v>472</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>94</v>
+        <v>473</v>
       </c>
     </row>
     <row r="89">
@@ -11700,18 +12430,18 @@
         <v>401</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>505</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>82</v>
@@ -11723,19 +12453,23 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>506</v>
+        <v>289</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="Q89" t="s" s="2">
         <v>77</v>
       </c>
@@ -11783,19 +12517,19 @@
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>77</v>
+        <v>479</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>94</v>
+        <v>480</v>
       </c>
     </row>
     <row r="90">
@@ -11803,14 +12537,14 @@
         <v>401</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>510</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" t="s" s="2">
@@ -11826,16 +12560,16 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>511</v>
+        <v>148</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>512</v>
+        <v>149</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>513</v>
+        <v>150</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -11874,17 +12608,19 @@
         <v>77</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AD90" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AE90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>509</v>
+        <v>151</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>75</v>
@@ -11896,7 +12632,7 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91">
@@ -11904,23 +12640,21 @@
         <v>401</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="D91" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>510</v>
+        <v>125</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>77</v>
@@ -11929,18 +12663,20 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>517</v>
+        <v>126</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>512</v>
+        <v>127</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O91" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
         <v>77</v>
@@ -11977,31 +12713,31 @@
         <v>77</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AE91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>509</v>
+        <v>158</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92">
@@ -12009,10 +12745,10 @@
         <v>401</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>518</v>
+        <v>483</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>518</v>
+        <v>483</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12029,22 +12765,26 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>519</v>
+        <v>102</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="Q92" t="s" s="2">
         <v>77</v>
       </c>
@@ -12056,7 +12796,7 @@
         <v>77</v>
       </c>
       <c r="U92" t="s" s="2">
-        <v>77</v>
+        <v>488</v>
       </c>
       <c r="V92" t="s" s="2">
         <v>77</v>
@@ -12068,13 +12808,13 @@
         <v>77</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>465</v>
+        <v>165</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="AB92" t="s" s="2">
         <v>77</v>
@@ -12092,7 +12832,7 @@
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>75</v>
@@ -12112,14 +12852,14 @@
         <v>401</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>525</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" t="s" s="2">
@@ -12138,15 +12878,17 @@
         <v>83</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>517</v>
+        <v>102</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>526</v>
+        <v>493</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O93" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
         <v>77</v>
@@ -12159,7 +12901,7 @@
         <v>77</v>
       </c>
       <c r="U93" t="s" s="2">
-        <v>77</v>
+        <v>496</v>
       </c>
       <c r="V93" t="s" s="2">
         <v>77</v>
@@ -12171,13 +12913,13 @@
         <v>77</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>77</v>
+        <v>497</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>77</v>
+        <v>498</v>
       </c>
       <c r="AB93" t="s" s="2">
         <v>77</v>
@@ -12195,7 +12937,7 @@
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>75</v>
@@ -12215,14 +12957,14 @@
         <v>401</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>529</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" t="s" s="2">
@@ -12241,18 +12983,20 @@
         <v>83</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>530</v>
+        <v>148</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="P94" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="Q94" t="s" s="2">
         <v>77</v>
       </c>
@@ -12264,7 +13008,7 @@
         <v>77</v>
       </c>
       <c r="U94" t="s" s="2">
-        <v>77</v>
+        <v>504</v>
       </c>
       <c r="V94" t="s" s="2">
         <v>77</v>
@@ -12300,7 +13044,7 @@
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>75</v>
@@ -12320,21 +13064,21 @@
         <v>401</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>535</v>
+        <v>77</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>77</v>
@@ -12346,17 +13090,15 @@
         <v>83</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
         <v>77</v>
@@ -12369,7 +13111,7 @@
         <v>77</v>
       </c>
       <c r="U95" t="s" s="2">
-        <v>77</v>
+        <v>509</v>
       </c>
       <c r="V95" t="s" s="2">
         <v>77</v>
@@ -12381,13 +13123,13 @@
         <v>77</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>539</v>
+        <v>77</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>540</v>
+        <v>77</v>
       </c>
       <c r="AB95" t="s" s="2">
         <v>77</v>
@@ -12405,13 +13147,13 @@
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>77</v>
@@ -12425,21 +13167,21 @@
         <v>401</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>77</v>
@@ -12451,17 +13193,15 @@
         <v>83</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>543</v>
+        <v>148</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
         <v>77</v>
@@ -12474,7 +13214,7 @@
         <v>77</v>
       </c>
       <c r="U96" t="s" s="2">
-        <v>77</v>
+        <v>515</v>
       </c>
       <c r="V96" t="s" s="2">
         <v>77</v>
@@ -12510,13 +13250,13 @@
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>77</v>
@@ -12530,21 +13270,21 @@
         <v>401</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>547</v>
+        <v>517</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>547</v>
+        <v>517</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>77</v>
+        <v>518</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>77</v>
@@ -12556,15 +13296,17 @@
         <v>83</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
         <v>77</v>
@@ -12577,7 +13319,7 @@
         <v>77</v>
       </c>
       <c r="U97" t="s" s="2">
-        <v>77</v>
+        <v>522</v>
       </c>
       <c r="V97" t="s" s="2">
         <v>77</v>
@@ -12589,13 +13331,13 @@
         <v>77</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>550</v>
+        <v>77</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>551</v>
+        <v>77</v>
       </c>
       <c r="AB97" t="s" s="2">
         <v>77</v>
@@ -12613,13 +13355,13 @@
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>77</v>
@@ -12633,21 +13375,21 @@
         <v>401</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>77</v>
+        <v>525</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>77</v>
@@ -12659,13 +13401,13 @@
         <v>83</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>553</v>
+        <v>148</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -12716,13 +13458,13 @@
         <v>77</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>77</v>
@@ -12736,21 +13478,21 @@
         <v>401</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>77</v>
+        <v>530</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>77</v>
@@ -12762,17 +13504,15 @@
         <v>83</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
         <v>77</v>
@@ -12785,7 +13525,7 @@
         <v>77</v>
       </c>
       <c r="U99" t="s" s="2">
-        <v>77</v>
+        <v>533</v>
       </c>
       <c r="V99" t="s" s="2">
         <v>77</v>
@@ -12797,13 +13537,13 @@
         <v>77</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>559</v>
+        <v>77</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>560</v>
+        <v>77</v>
       </c>
       <c r="AB99" t="s" s="2">
         <v>77</v>
@@ -12821,13 +13561,13 @@
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>77</v>
@@ -12841,10 +13581,10 @@
         <v>401</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12852,10 +13592,10 @@
       </c>
       <c r="F100" s="2"/>
       <c r="G100" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>77</v>
@@ -12867,16 +13607,16 @@
         <v>83</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>562</v>
+        <v>148</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>563</v>
+        <v>536</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
@@ -12926,13 +13666,13 @@
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>77</v>
@@ -12946,10 +13686,10 @@
         <v>401</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12960,7 +13700,7 @@
         <v>75</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>77</v>
@@ -12969,19 +13709,21 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>567</v>
+        <v>198</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="Q101" t="s" s="2">
         <v>77</v>
       </c>
@@ -12993,7 +13735,7 @@
         <v>77</v>
       </c>
       <c r="U101" t="s" s="2">
-        <v>77</v>
+        <v>544</v>
       </c>
       <c r="V101" t="s" s="2">
         <v>77</v>
@@ -13029,13 +13771,13 @@
         <v>77</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>77</v>
@@ -13049,21 +13791,21 @@
         <v>401</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>571</v>
+        <v>77</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>77</v>
@@ -13072,21 +13814,21 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>572</v>
+        <v>204</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>573</v>
+        <v>547</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="P102" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="Q102" t="s" s="2">
         <v>77</v>
       </c>
@@ -13134,13 +13876,13 @@
         <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>77</v>
@@ -13154,10 +13896,10 @@
         <v>401</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13177,21 +13919,23 @@
         <v>77</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>577</v>
+        <v>313</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="P103" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="Q103" t="s" s="2">
         <v>77</v>
       </c>
@@ -13239,7 +13983,7 @@
         <v>77</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>75</v>
@@ -13259,21 +14003,21 @@
         <v>401</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>581</v>
+        <v>555</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>581</v>
+        <v>555</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>582</v>
+        <v>77</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>77</v>
@@ -13282,23 +14026,19 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>583</v>
+        <v>149</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="P104" t="s" s="2">
-        <v>586</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
         <v>77</v>
       </c>
@@ -13322,13 +14062,13 @@
         <v>77</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>587</v>
+        <v>77</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>588</v>
+        <v>77</v>
       </c>
       <c r="AB104" t="s" s="2">
         <v>77</v>
@@ -13346,19 +14086,19 @@
         <v>77</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>581</v>
+        <v>151</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105">
@@ -13366,14 +14106,14 @@
         <v>401</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" t="s" s="2">
@@ -13392,15 +14132,17 @@
         <v>77</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>590</v>
+        <v>126</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O105" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
         <v>77</v>
@@ -13449,7 +14191,7 @@
         <v>77</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>589</v>
+        <v>158</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>75</v>
@@ -13461,7 +14203,7 @@
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106">
@@ -13469,42 +14211,46 @@
         <v>401</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>592</v>
+        <v>557</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>592</v>
+        <v>557</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>593</v>
+        <v>323</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="Q106" t="s" s="2">
         <v>77</v>
       </c>
@@ -13552,19 +14298,19 @@
         <v>77</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>592</v>
+        <v>325</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107">
@@ -13572,10 +14318,10 @@
         <v>401</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>595</v>
+        <v>558</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>595</v>
+        <v>558</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13586,7 +14332,7 @@
         <v>75</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>77</v>
@@ -13598,18 +14344,18 @@
         <v>77</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>596</v>
+        <v>171</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>597</v>
+        <v>559</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="P107" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="Q107" t="s" s="2">
         <v>77</v>
       </c>
@@ -13633,13 +14379,13 @@
         <v>77</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>77</v>
+        <v>562</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>77</v>
+        <v>563</v>
       </c>
       <c r="AB107" t="s" s="2">
         <v>77</v>
@@ -13657,18 +14403,4935 @@
         <v>77</v>
       </c>
       <c r="AG107" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="Q108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R108" s="2"/>
+      <c r="S108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Q109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R109" s="2"/>
+      <c r="S109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="O110" s="2"/>
+      <c r="P110" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="Q110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R110" s="2"/>
+      <c r="S110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="O111" s="2"/>
+      <c r="P111" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="Q111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R111" s="2"/>
+      <c r="S111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R112" s="2"/>
+      <c r="S112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R113" s="2"/>
+      <c r="S113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R114" s="2"/>
+      <c r="S114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R115" s="2"/>
+      <c r="S115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R116" s="2"/>
+      <c r="S116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R117" s="2"/>
+      <c r="S117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B118" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="AH107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI107" t="s" s="2">
+      <c r="C118" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H118" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AJ107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK107" t="s" s="2">
+      <c r="I118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R118" s="2"/>
+      <c r="S118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R119" s="2"/>
+      <c r="S119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P120" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R120" s="2"/>
+      <c r="S120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="P121" s="2"/>
+      <c r="Q121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R121" s="2"/>
+      <c r="S121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R122" s="2"/>
+      <c r="S122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="P123" s="2"/>
+      <c r="Q123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R123" s="2"/>
+      <c r="S123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R124" s="2"/>
+      <c r="S124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R125" s="2"/>
+      <c r="S125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="F126" s="2"/>
+      <c r="G126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="P126" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="Q126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R126" s="2"/>
+      <c r="S126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="O127" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R127" s="2"/>
+      <c r="S127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F128" s="2"/>
+      <c r="G128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R128" s="2"/>
+      <c r="S128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F129" s="2"/>
+      <c r="G129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="P129" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="Q129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R129" s="2"/>
+      <c r="S129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R130" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F131" s="2"/>
+      <c r="G131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="P131" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="Q131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R131" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="C132" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="F132" s="2"/>
+      <c r="G132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="O132" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="P132" s="2"/>
+      <c r="Q132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R132" s="2"/>
+      <c r="S132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="C133" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="P133" s="2"/>
+      <c r="Q133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R133" s="2"/>
+      <c r="S133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="C134" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F134" s="2"/>
+      <c r="G134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="O134" s="2"/>
+      <c r="P134" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="Q134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R134" s="2"/>
+      <c r="S134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="C135" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R135" s="2"/>
+      <c r="S135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="C136" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="F136" s="2"/>
+      <c r="G136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R136" s="2"/>
+      <c r="S136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="C137" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="F137" s="2"/>
+      <c r="G137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="N137" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R137" s="2"/>
+      <c r="S137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AD137" s="2"/>
+      <c r="AE137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="C138" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="D138" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="E138" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="F138" s="2"/>
+      <c r="G138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="O138" s="2"/>
+      <c r="P138" s="2"/>
+      <c r="Q138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R138" s="2"/>
+      <c r="S138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="C139" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F139" s="2"/>
+      <c r="G139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
+      <c r="Q139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R139" s="2"/>
+      <c r="S139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="C140" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="F140" s="2"/>
+      <c r="G140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R140" s="2"/>
+      <c r="S140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="C141" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="F141" s="2"/>
+      <c r="G141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R141" s="2"/>
+      <c r="S141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="C142" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="F142" s="2"/>
+      <c r="G142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="O142" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R142" s="2"/>
+      <c r="S142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="C143" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="F143" s="2"/>
+      <c r="G143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="N143" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="O143" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="P143" s="2"/>
+      <c r="Q143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R143" s="2"/>
+      <c r="S143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="C144" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F144" s="2"/>
+      <c r="G144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R144" s="2"/>
+      <c r="S144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="C145" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F145" s="2"/>
+      <c r="G145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R145" s="2"/>
+      <c r="S145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="C146" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F146" s="2"/>
+      <c r="G146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="O146" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="P146" s="2"/>
+      <c r="Q146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R146" s="2"/>
+      <c r="S146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="C147" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F147" s="2"/>
+      <c r="G147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="N147" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="O147" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="P147" s="2"/>
+      <c r="Q147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R147" s="2"/>
+      <c r="S147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B148" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="C148" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F148" s="2"/>
+      <c r="G148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="N148" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="O148" s="2"/>
+      <c r="P148" s="2"/>
+      <c r="Q148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R148" s="2"/>
+      <c r="S148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG148" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="AH148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK148" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="C149" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="F149" s="2"/>
+      <c r="G149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="O149" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="P149" s="2"/>
+      <c r="Q149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R149" s="2"/>
+      <c r="S149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="C150" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F150" s="2"/>
+      <c r="G150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="N150" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="O150" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="P150" s="2"/>
+      <c r="Q150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R150" s="2"/>
+      <c r="S150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="C151" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="F151" s="2"/>
+      <c r="G151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="O151" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="P151" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="Q151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R151" s="2"/>
+      <c r="S151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y151" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z151" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="AA151" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG151" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="AH151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="C152" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F152" s="2"/>
+      <c r="G152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L152" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="N152" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="O152" s="2"/>
+      <c r="P152" s="2"/>
+      <c r="Q152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R152" s="2"/>
+      <c r="S152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG152" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="AH152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI152" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK152" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="C153" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F153" s="2"/>
+      <c r="G153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K153" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="O153" s="2"/>
+      <c r="P153" s="2"/>
+      <c r="Q153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R153" s="2"/>
+      <c r="S153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG153" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="AH153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK153" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="C154" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F154" s="2"/>
+      <c r="G154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="N154" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="O154" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="P154" s="2"/>
+      <c r="Q154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R154" s="2"/>
+      <c r="S154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG154" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="AH154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK154" t="s" s="2">
         <v>94</v>
       </c>
     </row>

--- a/branches/transfer-out-resource_fig-17/all-profiles.xlsx
+++ b/branches/transfer-out-resource_fig-17/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T11:55:49+00:00</t>
+    <t>2023-02-02T11:57:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-resource_fig-17/all-profiles.xlsx
+++ b/branches/transfer-out-resource_fig-17/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T06:48:12+00:00</t>
+    <t>2023-02-06T06:48:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-resource_fig-17/all-profiles.xlsx
+++ b/branches/transfer-out-resource_fig-17/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T11:47:33+00:00</t>
+    <t>2023-02-06T11:48:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
